--- a/biology/Zoologie/Consul_electra/Consul_electra.xlsx
+++ b/biology/Zoologie/Consul_electra/Consul_electra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consul electra est une espèce d'insectes lépidoptères de la famille des Nymphalidae et de la sous-famille des Charaxinae et du genre Consul.
 </t>
@@ -511,15 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Consul electra a été décrit par Westwood en 1850 sous le nom initial de Paphia electra.
-Synonyme : Anaea electra, Godman &amp; Salvin, [1884][1].
-Noms vernaculaires
-Consul electrai se nomme Pearly Leafwing en anglais[2].
-Sous-espèces
-Consul electra electra
-Consul electra adustus Lamas, 2003[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consul electra a été décrit par Westwood en 1850 sous le nom initial de Paphia electra.
+Synonyme : Anaea electra, Godman &amp; Salvin, .
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +554,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consul electrai se nomme Pearly Leafwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Consul_electra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consul_electra</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Consul electra electra
+Consul electra adustus Lamas, 2003.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Consul_electra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consul_electra</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Consul electra est un papillon aux ailes antérieures à bord costal bossu, apex pointu en crochet et aux ailes postérieures munies d'une queue en massue et d'une amorce de queue à l'angle anal.
 Le dessus des ailes antérieures est jaune très pâle avec l'apex des ailes antérieures et le bord externe marron.
@@ -556,70 +642,148 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Consul_electra</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Consul_electra</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Consul_electra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consul_electra</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Piper[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Piper.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Consul_electra</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Consul_electra</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Consul_electra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consul_electra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consul panariste est présent au Mexique, au Nicaragua et à Panama[1].
-Biotope
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consul panariste est présent au Mexique, au Nicaragua et à Panama.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Consul_electra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consul_electra</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Consul electra, sur Wikimedia CommonsConsul electra, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Consul_electra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consul_electra</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
